--- a/CISSP_preparation.xlsx
+++ b/CISSP_preparation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taia006\Desktop\General\Requests\Project\BC\Cybersecurity\Prepare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E7FEE6-CE80-4E21-8572-4E57990137A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06666905-3800-415E-818D-CCA21BB30D5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{490CC6AE-1085-4153-B255-6E144A008499}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{490CC6AE-1085-4153-B255-6E144A008499}"/>
   </bookViews>
   <sheets>
     <sheet name="1) Security &amp; Risk Mgmt" sheetId="1" r:id="rId1"/>
+    <sheet name="2) Security &amp; Risk Mgmt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Security &amp; Compliance &amp; Policies</t>
   </si>
@@ -730,6 +731,98 @@
   </si>
   <si>
     <t xml:space="preserve">Legal and regulatory Issues: </t>
+  </si>
+  <si>
+    <t>Computer Crimes:</t>
+  </si>
+  <si>
+    <t>Fraud: Data Diddling, Salami Slicing/penny shaving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackers(black-hat, white-hat, Grey-hat) </t>
+  </si>
+  <si>
+    <t>Theft: Identity theft, intellectual property theft (software/code/designs)</t>
+  </si>
+  <si>
+    <t>Malware: Virus(if users opened a file), worms (self replicating without human intervention), Trojan Horses (hides its 
+identity within a legitimate program), spyware (track user action: web,file), Keyloggers:capture key strokes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyber Crimes: </t>
+  </si>
+  <si>
+    <t>cyber terrorism</t>
+  </si>
+  <si>
+    <t>cyber stalking (harassment,intimidations)</t>
+  </si>
+  <si>
+    <t>Information warefare: false propaganda, web page defacement….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDOS/DOS: overlaod web server by requests. </t>
+  </si>
+  <si>
+    <t>distributing/making child pornography</t>
+  </si>
+  <si>
+    <t>storing copyrighted materials without permission</t>
+  </si>
+  <si>
+    <t>Phishing, spamming, pharming: redirection to malicious website without acceptance…</t>
+  </si>
+  <si>
+    <t>data Breaches, Transborder data flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Ethics: </t>
+  </si>
+  <si>
+    <t>ISC2: 1)protect society, commonwealth, infra 2) act honorably, honestly, justly, reponsibly and legally, 
+3) provide diligent and competent service to principals 4) advance and protect the profession</t>
+  </si>
+  <si>
+    <t>Governance related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security policies, Standards, procedures, Guidelines: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security policies: High-level statements provide mgmt intent and direction for infosec (what) </t>
+  </si>
+  <si>
+    <t>Security Standards: prescriptive statements, control objectives, controls to enfoce security policies (how) NIST/ISO</t>
+  </si>
+  <si>
+    <t>Security procedures: step-by-step instructions to implement policy and standards</t>
+  </si>
+  <si>
+    <t>ISO/IEC 27002: security mgmt; ISO/IEC 27001 mgmt framework for info sec</t>
+  </si>
+  <si>
+    <t>Security guidelines: Best practice methodes to support sec controls selection and implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel security policies: </t>
+  </si>
+  <si>
+    <t>Employment candidate screening</t>
+  </si>
+  <si>
+    <t>Employment agreement and policies</t>
+  </si>
+  <si>
+    <t>Employment termination processes</t>
+  </si>
+  <si>
+    <t>Vendor, consultant, and contractor controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliance and privacy </t>
+  </si>
+  <si>
+    <t>Risk Mgmt, BC &amp; Security Education</t>
   </si>
 </sst>
 </file>
@@ -760,7 +853,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +872,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -792,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,6 +907,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,11 +1292,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E31B244-DF8F-49EB-B53A-F4FBB8AAF09A}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1450,103 +1558,280 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="5"/>
       <c r="B55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="5"/>
       <c r="B56" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="5"/>
       <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="5"/>
       <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="5"/>
       <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="5"/>
       <c r="B60" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="5"/>
       <c r="B61" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="5"/>
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="5"/>
       <c r="B63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="5"/>
       <c r="B64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="5"/>
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="5"/>
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="5"/>
       <c r="B67" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="5"/>
       <c r="B68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="5"/>
       <c r="B69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="5"/>
       <c r="B70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="5"/>
       <c r="B71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="5"/>
       <c r="B72" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="5"/>
       <c r="B73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B74" s="2" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="5"/>
+      <c r="B75" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="5"/>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="5"/>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="5"/>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A79" s="5"/>
+      <c r="B79" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="5"/>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="5"/>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="5"/>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="5"/>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="5"/>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="5"/>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="5"/>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="5"/>
+      <c r="B88" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B90" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B91" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B102" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1554,4 +1839,27 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F7E719-8222-4C3C-B7C9-7B36EB5D9ECA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>